--- a/src/Chapter-6/案例06 批量制作数据透视表/商品销售表/1月.xlsx
+++ b/src/Chapter-6/案例06 批量制作数据透视表/商品销售表/1月.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20353"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\example\05\为一个工作簿的工作表批量制作数据透视表\商品销售表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MGF\Documents\GitHub\TianXiaPy\PyExcel\src\Chapter-6\案例06 批量制作数据透视表\商品销售表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373F7ACD-D6BF-4756-89A0-E460B8FD97D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E031C8-3665-4BA3-A633-9BDD4283BD06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16170" windowHeight="6000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="36">
   <si>
     <t>销售日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,14 +158,19 @@
   </si>
   <si>
     <t>元**</t>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -233,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,6 +261,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,24 +548,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
-    <col min="9" max="26" width="9" style="7"/>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="7"/>
+    <col min="10" max="10" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="14.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="26" width="9" style="7"/>
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,8 +594,26 @@
       <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>43466</v>
       </c>
@@ -608,8 +638,26 @@
       <c r="H2" s="6">
         <v>616000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2059200</v>
+      </c>
+      <c r="M2" s="8">
+        <v>4183800</v>
+      </c>
+      <c r="N2" s="8">
+        <v>3513200</v>
+      </c>
+      <c r="O2" s="8">
+        <v>9756200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>43466</v>
       </c>
@@ -634,8 +682,26 @@
       <c r="H3" s="6">
         <v>1310400</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3826000</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1806200</v>
+      </c>
+      <c r="M3" s="8">
+        <v>6324000</v>
+      </c>
+      <c r="N3" s="8">
+        <v>1284000</v>
+      </c>
+      <c r="O3" s="8">
+        <v>13240200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>43467</v>
       </c>
@@ -660,8 +726,26 @@
       <c r="H4" s="6">
         <v>1190000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="8">
+        <v>3676400</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1694000</v>
+      </c>
+      <c r="M4" s="8">
+        <v>1245200</v>
+      </c>
+      <c r="N4" s="8">
+        <v>2552800</v>
+      </c>
+      <c r="O4" s="8">
+        <v>9168400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>43469</v>
       </c>
@@ -686,8 +770,26 @@
       <c r="H5" s="6">
         <v>778800</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="8">
+        <v>3025200</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1634600</v>
+      </c>
+      <c r="M5" s="8">
+        <v>588000</v>
+      </c>
+      <c r="N5" s="8">
+        <v>3369400</v>
+      </c>
+      <c r="O5" s="8">
+        <v>8617200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>43469</v>
       </c>
@@ -712,8 +814,26 @@
       <c r="H6" s="6">
         <v>1746000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="8">
+        <v>10527600</v>
+      </c>
+      <c r="L6" s="8">
+        <v>7194000</v>
+      </c>
+      <c r="M6" s="8">
+        <v>12341000</v>
+      </c>
+      <c r="N6" s="8">
+        <v>10719400</v>
+      </c>
+      <c r="O6" s="8">
+        <v>40782000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>43470</v>
       </c>
@@ -739,7 +859,7 @@
         <v>1148000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>43470</v>
       </c>
@@ -765,7 +885,7 @@
         <v>1831200</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>43471</v>
       </c>
@@ -791,7 +911,7 @@
         <v>272800</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>43472</v>
       </c>
@@ -816,8 +936,10 @@
       <c r="H10" s="6">
         <v>720000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>43472</v>
       </c>
@@ -842,8 +964,10 @@
       <c r="H11" s="6">
         <v>980000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>43473</v>
       </c>
@@ -869,7 +993,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>43474</v>
       </c>
@@ -894,8 +1018,14 @@
       <c r="H13" s="6">
         <v>1364000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>43474</v>
       </c>
@@ -920,8 +1050,14 @@
       <c r="H14" s="6">
         <v>1033200</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>43475</v>
       </c>
@@ -946,8 +1082,14 @@
       <c r="H15" s="6">
         <v>828800</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>43476</v>
       </c>
@@ -972,8 +1114,14 @@
       <c r="H16" s="6">
         <v>690800</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>43476</v>
       </c>
@@ -998,8 +1146,14 @@
       <c r="H17" s="6">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>43477</v>
       </c>
@@ -1024,8 +1178,14 @@
       <c r="H18" s="6">
         <v>1296000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>43478</v>
       </c>
@@ -1050,8 +1210,14 @@
       <c r="H19" s="6">
         <v>480000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>43478</v>
       </c>
@@ -1076,8 +1242,11 @@
       <c r="H20" s="6">
         <v>358400</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>43479</v>
       </c>
@@ -1102,8 +1271,11 @@
       <c r="H21" s="6">
         <v>591800</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>43481</v>
       </c>
@@ -1128,8 +1300,11 @@
       <c r="H22" s="6">
         <v>1579200</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>43481</v>
       </c>
@@ -1154,8 +1329,11 @@
       <c r="H23" s="6">
         <v>946800</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>43482</v>
       </c>
@@ -1180,8 +1358,11 @@
       <c r="H24" s="6">
         <v>1083600</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>43483</v>
       </c>
@@ -1206,8 +1387,11 @@
       <c r="H25" s="6">
         <v>1396800</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>43483</v>
       </c>
@@ -1232,8 +1416,11 @@
       <c r="H26" s="6">
         <v>803000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>43485</v>
       </c>
@@ -1258,8 +1445,11 @@
       <c r="H27" s="6">
         <v>966000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>43485</v>
       </c>
@@ -1284,8 +1474,11 @@
       <c r="H28" s="6">
         <v>1284000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>43486</v>
       </c>
@@ -1310,8 +1503,11 @@
       <c r="H29" s="6">
         <v>1281600</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>43487</v>
       </c>
@@ -1336,8 +1532,11 @@
       <c r="H30" s="6">
         <v>851400</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>43487</v>
       </c>
@@ -1363,7 +1562,7 @@
         <v>1156000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>43488</v>
       </c>
